--- a/data/trans_orig/P43E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Estudios-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>87060</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68248</v>
+        <v>72164</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107077</v>
+        <v>106404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1263893794405458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09907972160198959</v>
+        <v>0.104764419522891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1554496601257055</v>
+        <v>0.1544716280835972</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>601763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>581746</v>
+        <v>582419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>620575</v>
+        <v>616659</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8736106205594542</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8445503398742945</v>
+        <v>0.8455283719164027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9009202783980104</v>
+        <v>0.8952355804771089</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>281733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>253013</v>
+        <v>253079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>314743</v>
+        <v>315194</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2322187501367962</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2085467262304155</v>
+        <v>0.2086011447849442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2594279199366812</v>
+        <v>0.2597991071257455</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>931488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898478</v>
+        <v>898027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>960208</v>
+        <v>960142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7677812498632037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7405720800633193</v>
+        <v>0.7402008928742546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7914532737695844</v>
+        <v>0.7913988552150558</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>147677</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129250</v>
+        <v>129381</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168263</v>
+        <v>167788</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4292817531493388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3757165927668221</v>
+        <v>0.3760960201596608</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4891211973531427</v>
+        <v>0.487741342266672</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>196333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175747</v>
+        <v>176222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214760</v>
+        <v>214629</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5707182468506613</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5108788026468573</v>
+        <v>0.512258657733328</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6242834072331778</v>
+        <v>0.6239039798403393</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>516470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>473212</v>
+        <v>476305</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>559687</v>
+        <v>559650</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2299453928697451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2106858829434431</v>
+        <v>0.2120631147434178</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2491868197354818</v>
+        <v>0.2491704905428273</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>1729584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1686367</v>
+        <v>1686404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1772842</v>
+        <v>1769749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7700546071302549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7508131802645183</v>
+        <v>0.7508295094571725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7893141170565567</v>
+        <v>0.7879368852565822</v>
       </c>
     </row>
     <row r="15">
@@ -1104,19 +1104,19 @@
         <v>23807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14941</v>
+        <v>15046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35814</v>
+        <v>35208</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05007716176561434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03142864294003604</v>
+        <v>0.03164972694271555</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07533370356697458</v>
+        <v>0.0740591154863191</v>
       </c>
     </row>
     <row r="5">
@@ -1133,19 +1133,19 @@
         <v>451595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439588</v>
+        <v>440194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>460461</v>
+        <v>460356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9499228382343856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9246662964330256</v>
+        <v>0.9259408845136797</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9685713570599641</v>
+        <v>0.9683502730572844</v>
       </c>
     </row>
     <row r="6">
@@ -1195,19 +1195,19 @@
         <v>176081</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151010</v>
+        <v>151195</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202119</v>
+        <v>201115</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1401995734080447</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1202375326053691</v>
+        <v>0.1203849583796433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1609314100907585</v>
+        <v>0.1601320120378173</v>
       </c>
     </row>
     <row r="8">
@@ -1224,19 +1224,19 @@
         <v>1079851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1053813</v>
+        <v>1054817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1104922</v>
+        <v>1104737</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8598004265919553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8390685899092416</v>
+        <v>0.8398679879621826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.879762467394631</v>
+        <v>0.8796150416203569</v>
       </c>
     </row>
     <row r="9">
@@ -1286,19 +1286,19 @@
         <v>148730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>126342</v>
+        <v>129861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167315</v>
+        <v>170168</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3601540833351114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3059395183807337</v>
+        <v>0.3144618524791453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4051580421407451</v>
+        <v>0.4120653260401855</v>
       </c>
     </row>
     <row r="11">
@@ -1315,19 +1315,19 @@
         <v>264233</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>245648</v>
+        <v>242795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>286621</v>
+        <v>283102</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6398459166648887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5948419578592545</v>
+        <v>0.5879346739598146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6940604816192661</v>
+        <v>0.6855381475208547</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>348618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>310723</v>
+        <v>315770</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>385127</v>
+        <v>383898</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1625792540440566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1449066751196205</v>
+        <v>0.1472601755580017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1796054581144486</v>
+        <v>0.1790322594510378</v>
       </c>
     </row>
     <row r="14">
@@ -1406,19 +1406,19 @@
         <v>1795679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1759170</v>
+        <v>1760399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1833574</v>
+        <v>1828527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8374207459559434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8203945418855514</v>
+        <v>0.8209677405489623</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8550933248803795</v>
+        <v>0.8527398244419984</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>18819</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13275</v>
+        <v>12855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26714</v>
+        <v>26136</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06195918923321292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04370438614452778</v>
+        <v>0.04232270774741859</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08795202770811744</v>
+        <v>0.08604668390887722</v>
       </c>
     </row>
     <row r="5">
@@ -1614,19 +1614,19 @@
         <v>284920</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277025</v>
+        <v>277603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290464</v>
+        <v>290884</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9380408107667871</v>
+        <v>0.938040810766787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9120479722918826</v>
+        <v>0.9139533160911227</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9562956138554725</v>
+        <v>0.9576772922525811</v>
       </c>
     </row>
     <row r="6">
@@ -1676,19 +1676,19 @@
         <v>194444</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172179</v>
+        <v>170954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216136</v>
+        <v>213874</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2125248199225629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.188188674600852</v>
+        <v>0.1868503971877062</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2362338106996001</v>
+        <v>0.2337605285231981</v>
       </c>
     </row>
     <row r="8">
@@ -1705,19 +1705,19 @@
         <v>720482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>698790</v>
+        <v>701052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>742747</v>
+        <v>743972</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.787475180077437</v>
+        <v>0.7874751800774371</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7637661893004</v>
+        <v>0.7662394714768018</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.811811325399148</v>
+        <v>0.8131496028122939</v>
       </c>
     </row>
     <row r="9">
@@ -1767,19 +1767,19 @@
         <v>180579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164381</v>
+        <v>163693</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199800</v>
+        <v>197178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4668486253974452</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4249728056593177</v>
+        <v>0.42319244354712</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5165405121450702</v>
+        <v>0.5097624293036143</v>
       </c>
     </row>
     <row r="11">
@@ -1796,19 +1796,19 @@
         <v>206225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187004</v>
+        <v>189626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>222423</v>
+        <v>223111</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5331513746025548</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4834594878549299</v>
+        <v>0.4902375706963858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5750271943406824</v>
+        <v>0.5768075564528798</v>
       </c>
     </row>
     <row r="12">
@@ -1858,19 +1858,19 @@
         <v>393843</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>363803</v>
+        <v>364685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>425182</v>
+        <v>424461</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2453131793968978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2266024058601263</v>
+        <v>0.2271518743929355</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2648338197525864</v>
+        <v>0.2643845230827205</v>
       </c>
     </row>
     <row r="14">
@@ -1887,19 +1887,19 @@
         <v>1211626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1180287</v>
+        <v>1181008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1241666</v>
+        <v>1240784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7546868206031023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7351661802474136</v>
+        <v>0.7356154769172795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7733975941398739</v>
+        <v>0.7728481256070645</v>
       </c>
     </row>
     <row r="15">
